--- a/QA/Usability/Usability.xlsx
+++ b/QA/Usability/Usability.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1160F66D-2EFA-4EEA-AC2A-07738617C6E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3EB8FA-4A25-444E-9D53-DC8B22C441BB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Bugs" sheetId="3" r:id="rId3"/>
+    <sheet name="Improvement ticket" sheetId="3" r:id="rId1"/>
+    <sheet name="Check List" sheetId="4" r:id="rId2"/>
+    <sheet name="Bugs" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,9 +21,131 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Follow the unity and standardization</t>
+  </si>
+  <si>
+    <t>Realize opportunity to use all the functionality with a keyboard, without the use of a mouse.</t>
+  </si>
+  <si>
+    <t>Add ALT tags on images.</t>
+  </si>
+  <si>
+    <t>Use SSL/TLS certificate on site.</t>
+  </si>
+  <si>
+    <t>Simple design</t>
+  </si>
+  <si>
+    <t>Consider delivering critical JS/CSS inline and deferring all non-critical JS/styles.</t>
+  </si>
+  <si>
+    <t>Use less JS for background.</t>
+  </si>
+  <si>
+    <t>Add contrast between color of the text and the color of the background.</t>
+  </si>
+  <si>
+    <t>Do not use HTML to format content.</t>
+  </si>
+  <si>
+    <t>Text-based responses should be served with compression (gzip, deflate or brotli) to minimize total network bytes.</t>
+  </si>
+  <si>
+    <t>Use less JS on the site.</t>
+  </si>
+  <si>
+    <t>Remove unused rules from stylesheets to reduce unnecessary bytes consumed by network activity</t>
+  </si>
+  <si>
+    <t>Serve images that are appropriately-sized to save cellular data and improve load time.</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>User Experience</t>
+  </si>
+  <si>
+    <t>Users understand the purpose of the site.</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The site creates a positive first impression. </t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Site has custom not‐found/404 page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site has an SSL/TSL certificate.  </t>
+  </si>
+  <si>
+    <t>Aestetic &amp; Minimal design.</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important links aren't placed in moving features. </t>
+  </si>
+  <si>
+    <t>Navigation is consistent on every page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact and company information is clearly displayed. </t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Site load‐time is reasonable</t>
+  </si>
+  <si>
+    <t>Images have appropriate ALT tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site can be navigated with a keyboard, without using a mouse. </t>
+  </si>
+  <si>
+    <t>Content </t>
+  </si>
+  <si>
+    <t>There is adequate contrast between the text and background.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual content is used when appropriate, instead of large amounts of text. </t>
+  </si>
+  <si>
+    <t>Contact and company information is clearly displayed.</t>
+  </si>
+  <si>
+    <t>Content is useful and providing answers to the most common questions asked by users.</t>
+  </si>
+  <si>
+    <t>Content is readable without a style sheet. </t>
+  </si>
+  <si>
+    <t>Adequate text‐to‐background contrast</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,16 +153,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -48,15 +241,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -333,34 +613,396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242C419D-F42A-4BF8-A9A4-260E812E0BBD}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F70EC56-9374-4861-B683-5093DFFE8B1E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC21A5FC-6B43-4B92-9C86-7534B53E9A26}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242C419D-F42A-4BF8-A9A4-260E812E0BBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62BF648-0C86-460E-BEF2-0FE2D502B50F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
